--- a/SASIMI-VECBEE/result/AERD/cp-aerd.xlsx
+++ b/SASIMI-VECBEE/result/AERD/cp-aerd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12450"/>
+    <workbookView windowWidth="13800" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,13 +80,13 @@
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0E+00"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +96,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -104,6 +118,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,10 +139,100 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,116 +244,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -255,55 +261,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,127 +417,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,11 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +526,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -522,181 +552,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,10 +718,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="true" applyFill="true" applyAlignment="true">
@@ -1061,7 +1064,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1146,7 +1149,7 @@
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1175,7 +1178,7 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1204,7 +1207,7 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1233,7 +1236,7 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1262,7 +1265,7 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1285,164 +1288,164 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>0.983264</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.000126738</v>
+        <v>0.985141</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.000107631</v>
       </c>
       <c r="D9" s="2">
-        <v>0.987008</v>
-      </c>
-      <c r="E9" s="11">
-        <v>6.94748e-5</v>
+        <v>0.990204</v>
+      </c>
+      <c r="E9" s="10">
+        <v>6.34796e-5</v>
       </c>
       <c r="F9" s="2">
-        <v>0.995319</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1.67952e-5</v>
+        <v>0.995171</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1.6499e-5</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="2">
         <v>0.722243</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>0.00483595</v>
       </c>
       <c r="D10" s="2">
         <v>0.726866</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0.0047422</v>
       </c>
       <c r="F10" s="2">
         <v>0.736875</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>0.00474377</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>0.9995</v>
+        <v>0.999624</v>
       </c>
       <c r="C11" s="3">
-        <v>7.29197e-7</v>
+        <v>4.39092e-7</v>
       </c>
       <c r="D11" s="2">
-        <v>0.999875</v>
-      </c>
-      <c r="E11" s="12">
-        <v>2.07961e-7</v>
+        <v>0.999751</v>
+      </c>
+      <c r="E11" s="11">
+        <v>4.36545e-7</v>
       </c>
       <c r="F11" s="2">
         <v>0.999958</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>6.24311e-8</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>0.976487</v>
+        <v>0.972441</v>
       </c>
       <c r="C12" s="3">
-        <v>0.000142462</v>
+        <v>0.000153543</v>
       </c>
       <c r="D12" s="2">
-        <v>0.983471</v>
+        <v>0.987654</v>
       </c>
       <c r="E12" s="3">
-        <v>0.000108815</v>
+        <v>5.76132e-5</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="12">
         <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>0.868663</v>
+        <v>0.87469</v>
       </c>
       <c r="C13" s="3">
-        <v>0.000518824</v>
+        <v>0.000507905</v>
       </c>
       <c r="D13" s="2">
-        <v>0.874593</v>
+        <v>0.875474</v>
       </c>
       <c r="E13" s="3">
-        <v>0.000448517</v>
+        <v>0.000503071</v>
       </c>
       <c r="F13" s="2">
-        <v>0.87138</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.000449359</v>
+        <v>0.875996</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.000496929</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
@@ -1496,32 +1499,32 @@
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="9">
-        <f>B3*100</f>
+      <c r="B21" s="8">
+        <f t="shared" ref="B21:B31" si="0">B3*100</f>
         <v>62.84</v>
       </c>
       <c r="C21" s="3">
         <v>0.0135</v>
       </c>
-      <c r="D21" s="9">
-        <f t="shared" ref="D21:D31" si="0">D3*100</f>
+      <c r="D21" s="8">
+        <f t="shared" ref="D21:D31" si="1">D3*100</f>
         <v>74.76</v>
       </c>
       <c r="E21" s="3">
         <v>0.0055</v>
       </c>
-      <c r="F21" s="9">
-        <f t="shared" ref="F21:F31" si="1">F3*100</f>
+      <c r="F21" s="8">
+        <f t="shared" ref="F21:F31" si="2">F3*100</f>
         <v>84.62</v>
       </c>
       <c r="G21" s="3">
         <v>0.0019</v>
       </c>
-      <c r="H21" s="9">
-        <f t="shared" ref="H21:H31" si="2">H3*100</f>
+      <c r="H21" s="8">
+        <f t="shared" ref="H21:H31" si="3">H3*100</f>
         <v>100</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1529,32 +1532,32 @@
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="9">
-        <f t="shared" ref="B22:B31" si="3">B4*100</f>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
         <v>52.21</v>
       </c>
       <c r="C22" s="3">
         <v>0.0385</v>
       </c>
-      <c r="D22" s="9">
-        <f t="shared" si="0"/>
+      <c r="D22" s="8">
+        <f t="shared" si="1"/>
         <v>86.3</v>
       </c>
       <c r="E22" s="3">
         <v>0.0128</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" si="1"/>
+      <c r="F22" s="8">
+        <f t="shared" si="2"/>
         <v>88.98</v>
       </c>
       <c r="G22" s="3">
         <v>0.012</v>
       </c>
-      <c r="H22" s="9">
-        <f t="shared" si="2"/>
+      <c r="H22" s="8">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1562,32 +1565,32 @@
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="9">
-        <f t="shared" si="3"/>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
         <v>58.46</v>
       </c>
       <c r="C23" s="3">
         <v>0.0233</v>
       </c>
-      <c r="D23" s="9">
-        <f t="shared" si="0"/>
+      <c r="D23" s="8">
+        <f t="shared" si="1"/>
         <v>86.54</v>
       </c>
       <c r="E23" s="3">
         <v>0.0057</v>
       </c>
-      <c r="F23" s="9">
-        <f t="shared" si="1"/>
+      <c r="F23" s="8">
+        <f t="shared" si="2"/>
         <v>87.37</v>
       </c>
       <c r="G23" s="3">
         <v>0.0054</v>
       </c>
-      <c r="H23" s="9">
-        <f t="shared" si="2"/>
+      <c r="H23" s="8">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1595,32 +1598,32 @@
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="9">
-        <f t="shared" si="3"/>
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
         <v>92.1</v>
       </c>
       <c r="C24" s="3">
         <v>0.0159</v>
       </c>
-      <c r="D24" s="9">
-        <f t="shared" si="0"/>
+      <c r="D24" s="8">
+        <f t="shared" si="1"/>
         <v>99.45</v>
       </c>
       <c r="E24" s="3">
         <v>0.0001</v>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" si="1"/>
+      <c r="F24" s="8">
+        <f t="shared" si="2"/>
         <v>99.9</v>
       </c>
       <c r="G24" s="3">
         <v>1e-5</v>
       </c>
-      <c r="H24" s="9">
-        <f t="shared" si="2"/>
+      <c r="H24" s="8">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1628,32 +1631,32 @@
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="9">
-        <f t="shared" si="3"/>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
         <v>42.34</v>
       </c>
       <c r="C25" s="3">
         <v>0.0815</v>
       </c>
-      <c r="D25" s="9">
-        <f t="shared" si="0"/>
+      <c r="D25" s="8">
+        <f t="shared" si="1"/>
         <v>95.13</v>
       </c>
       <c r="E25" s="3">
         <v>0.0032</v>
       </c>
-      <c r="F25" s="9">
-        <f t="shared" si="1"/>
+      <c r="F25" s="8">
+        <f t="shared" si="2"/>
         <v>98.42</v>
       </c>
       <c r="G25" s="3">
         <v>3e-5</v>
       </c>
-      <c r="H25" s="9">
-        <f t="shared" si="2"/>
+      <c r="H25" s="8">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1661,197 +1664,197 @@
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="9">
-        <f t="shared" si="3"/>
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
         <v>39.27</v>
       </c>
       <c r="C26" s="3">
         <v>0.1074</v>
       </c>
-      <c r="D26" s="9">
-        <f t="shared" si="0"/>
+      <c r="D26" s="8">
+        <f t="shared" si="1"/>
         <v>99.99</v>
       </c>
       <c r="E26" s="3">
         <v>1e-5</v>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="F26" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="I26" s="10">
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I26" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>98.5141</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.000107631</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="1"/>
+        <v>99.0204</v>
+      </c>
+      <c r="E27" s="10">
+        <v>6.34796e-5</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="2"/>
+        <v>99.5171</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1.6499e-5</v>
+      </c>
+      <c r="H27" s="8">
         <f t="shared" si="3"/>
-        <v>98.3264</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.000126738</v>
-      </c>
-      <c r="D27" s="9">
+        <v>100</v>
+      </c>
+      <c r="I27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="8">
         <f t="shared" si="0"/>
-        <v>98.7008</v>
-      </c>
-      <c r="E27" s="11">
-        <v>6.94748e-5</v>
-      </c>
-      <c r="F27" s="9">
+        <v>72.2243</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.00483595</v>
+      </c>
+      <c r="D28" s="8">
         <f t="shared" si="1"/>
-        <v>99.5319</v>
-      </c>
-      <c r="G27" s="12">
-        <v>1.67952e-5</v>
-      </c>
-      <c r="H27" s="9">
+        <v>72.6866</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.0047422</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="2"/>
+        <v>73.6875</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.00474377</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="0"/>
+        <v>99.9624</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.39092e-7</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="1"/>
+        <v>99.9751</v>
+      </c>
+      <c r="E29" s="11">
+        <v>4.36545e-7</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="2"/>
+        <v>99.9958</v>
+      </c>
+      <c r="G29" s="11">
+        <v>6.24311e-8</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>97.2441</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.000153543</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="1"/>
+        <v>98.7654</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5.76132e-5</v>
+      </c>
+      <c r="F30" s="8">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
         <f t="shared" si="3"/>
-        <v>72.2243</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.00483595</v>
-      </c>
-      <c r="D28" s="9">
+        <v>100</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="8">
         <f t="shared" si="0"/>
-        <v>72.6866</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.0047422</v>
-      </c>
-      <c r="F28" s="9">
+        <v>87.469</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.000507905</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="1"/>
-        <v>73.6875</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.00474377</v>
-      </c>
-      <c r="H28" s="9">
+        <v>87.5474</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.000503071</v>
+      </c>
+      <c r="F31" s="8">
         <f t="shared" si="2"/>
+        <v>87.5996</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0.000496929</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I28" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="9">
-        <f t="shared" si="3"/>
-        <v>99.95</v>
-      </c>
-      <c r="C29" s="3">
-        <v>7.29197e-7</v>
-      </c>
-      <c r="D29" s="9">
-        <f t="shared" si="0"/>
-        <v>99.9875</v>
-      </c>
-      <c r="E29" s="12">
-        <v>2.07961e-7</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="1"/>
-        <v>99.9958</v>
-      </c>
-      <c r="G29" s="12">
-        <v>6.24311e-8</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="9">
-        <f t="shared" si="3"/>
-        <v>97.6487</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.000142462</v>
-      </c>
-      <c r="D30" s="9">
-        <f t="shared" si="0"/>
-        <v>98.3471</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.000108815</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I30" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="9">
-        <f t="shared" si="3"/>
-        <v>86.8663</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.000518824</v>
-      </c>
-      <c r="D31" s="9">
-        <f t="shared" si="0"/>
-        <v>87.4593</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.000448517</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="1"/>
-        <v>87.138</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0.000449359</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="I31" s="12">
         <v>0</v>
       </c>
     </row>
